--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.159305958408801</v>
+        <v>0.168045</v>
       </c>
       <c r="H2">
-        <v>0.159305958408801</v>
+        <v>0.504135</v>
       </c>
       <c r="I2">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="J2">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>8.980093858629656</v>
+        <v>0.01626653194</v>
       </c>
       <c r="R2">
-        <v>8.980093858629656</v>
+        <v>0.14639878746</v>
       </c>
       <c r="S2">
-        <v>0.02920883828334007</v>
+        <v>3.974852321035382E-05</v>
       </c>
       <c r="T2">
-        <v>0.02920883828334007</v>
+        <v>3.974852321035381E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.159305958408801</v>
+        <v>0.168045</v>
       </c>
       <c r="H3">
-        <v>0.159305958408801</v>
+        <v>0.504135</v>
       </c>
       <c r="I3">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="J3">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>12.67762083756275</v>
+        <v>0.00746500702</v>
       </c>
       <c r="R3">
-        <v>12.67762083756275</v>
+        <v>0.06718506318</v>
       </c>
       <c r="S3">
-        <v>0.04123549070770841</v>
+        <v>1.824131940934942E-05</v>
       </c>
       <c r="T3">
-        <v>0.04123549070770841</v>
+        <v>1.824131940934941E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.159305958408801</v>
+        <v>0.168045</v>
       </c>
       <c r="H4">
-        <v>0.159305958408801</v>
+        <v>0.504135</v>
       </c>
       <c r="I4">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="J4">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>9.617201283483416</v>
+        <v>10.24360275141</v>
       </c>
       <c r="R4">
-        <v>9.617201283483416</v>
+        <v>92.19242476269</v>
       </c>
       <c r="S4">
-        <v>0.03128110701845866</v>
+        <v>0.02503103201247362</v>
       </c>
       <c r="T4">
-        <v>0.03128110701845866</v>
+        <v>0.02503103201247362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.159305958408801</v>
+        <v>0.168045</v>
       </c>
       <c r="H5">
-        <v>0.159305958408801</v>
+        <v>0.504135</v>
       </c>
       <c r="I5">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="J5">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>0.2166241211925821</v>
+        <v>13.81727292816</v>
       </c>
       <c r="R5">
-        <v>0.2166241211925821</v>
+        <v>124.35545635344</v>
       </c>
       <c r="S5">
-        <v>0.0007045960792608385</v>
+        <v>0.03376357023823982</v>
       </c>
       <c r="T5">
-        <v>0.0007045960792608385</v>
+        <v>0.03376357023823981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.270285247909694</v>
+        <v>0.168045</v>
       </c>
       <c r="H6">
-        <v>0.270285247909694</v>
+        <v>0.504135</v>
       </c>
       <c r="I6">
-        <v>0.1737871382404053</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="J6">
-        <v>0.1737871382404053</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>15.23600823896079</v>
+        <v>10.65333163883</v>
       </c>
       <c r="R6">
-        <v>15.23600823896079</v>
+        <v>95.87998474947</v>
       </c>
       <c r="S6">
-        <v>0.04955695427479115</v>
+        <v>0.02603223609528848</v>
       </c>
       <c r="T6">
-        <v>0.04955695427479115</v>
+        <v>0.02603223609528848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.270285247909694</v>
+        <v>0.168045</v>
       </c>
       <c r="H7">
-        <v>0.270285247909694</v>
+        <v>0.504135</v>
       </c>
       <c r="I7">
-        <v>0.1737871382404053</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="J7">
-        <v>0.1737871382404053</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>21.50938938638246</v>
+        <v>0.273576867895</v>
       </c>
       <c r="R7">
-        <v>21.50938938638246</v>
+        <v>2.462191811055</v>
       </c>
       <c r="S7">
-        <v>0.06996188303271347</v>
+        <v>0.000668506140303949</v>
       </c>
       <c r="T7">
-        <v>0.06996188303271347</v>
+        <v>0.000668506140303949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.270285247909694</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H8">
-        <v>0.270285247909694</v>
+        <v>0.972994</v>
       </c>
       <c r="I8">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="J8">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>16.31695172652209</v>
+        <v>0.03139484062488889</v>
       </c>
       <c r="R8">
-        <v>16.31695172652209</v>
+        <v>0.282553565624</v>
       </c>
       <c r="S8">
-        <v>0.05307285333093149</v>
+        <v>7.671571026120982E-05</v>
       </c>
       <c r="T8">
-        <v>0.05307285333093149</v>
+        <v>7.671571026120979E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,309 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.270285247909694</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H9">
-        <v>0.270285247909694</v>
+        <v>0.972994</v>
       </c>
       <c r="I9">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="J9">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>0.3675336747261425</v>
+        <v>0.01440766271022222</v>
       </c>
       <c r="R9">
-        <v>0.3675336747261425</v>
+        <v>0.129668964392</v>
       </c>
       <c r="S9">
-        <v>0.001195447601969249</v>
+        <v>3.52062331268024E-05</v>
       </c>
       <c r="T9">
-        <v>0.001195447601969249</v>
+        <v>3.520623312680239E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12567491202796</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H10">
-        <v>1.12567491202796</v>
+        <v>0.972994</v>
       </c>
       <c r="I10">
-        <v>0.7237828296708266</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="J10">
-        <v>0.7237828296708266</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>63.4544147958078</v>
+        <v>19.770426603004</v>
       </c>
       <c r="R10">
-        <v>63.4544147958078</v>
+        <v>177.933839427036</v>
       </c>
       <c r="S10">
-        <v>0.2063931367881672</v>
+        <v>0.04831055959603035</v>
       </c>
       <c r="T10">
-        <v>0.2063931367881672</v>
+        <v>0.04831055959603034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12567491202796</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H11">
-        <v>1.12567491202796</v>
+        <v>0.972994</v>
       </c>
       <c r="I11">
-        <v>0.7237828296708266</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="J11">
-        <v>0.7237828296708266</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>89.58158165325015</v>
+        <v>26.66770538737067</v>
       </c>
       <c r="R11">
-        <v>89.58158165325015</v>
+        <v>240.009348486336</v>
       </c>
       <c r="S11">
-        <v>0.2913748979540055</v>
+        <v>0.06516459135030481</v>
       </c>
       <c r="T11">
-        <v>0.2913748979540055</v>
+        <v>0.06516459135030479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12567491202796</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H12">
-        <v>1.12567491202796</v>
+        <v>0.972994</v>
       </c>
       <c r="I12">
-        <v>0.7237828296708266</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="J12">
-        <v>0.7237828296708266</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>67.95629188557893</v>
+        <v>20.56121428702978</v>
       </c>
       <c r="R12">
-        <v>67.95629188557893</v>
+        <v>185.050928583268</v>
       </c>
       <c r="S12">
-        <v>0.2210360349534504</v>
+        <v>0.05024291018734887</v>
       </c>
       <c r="T12">
-        <v>0.2210360349534504</v>
+        <v>0.05024291018734885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3243313333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.972994</v>
+      </c>
+      <c r="I13">
+        <v>0.1651202177631758</v>
+      </c>
+      <c r="J13">
+        <v>0.1651202177631757</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.883993</v>
+      </c>
+      <c r="O13">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P13">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q13">
+        <v>0.5280106538935556</v>
+      </c>
+      <c r="R13">
+        <v>4.752095885042</v>
+      </c>
+      <c r="S13">
+        <v>0.001290234686103724</v>
+      </c>
+      <c r="T13">
+        <v>0.001290234686103723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.044464</v>
+      </c>
+      <c r="I14">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="J14">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.290396</v>
+      </c>
+      <c r="O14">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P14">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q14">
+        <v>0.001434685304888889</v>
+      </c>
+      <c r="R14">
+        <v>0.012912167744</v>
+      </c>
+      <c r="S14">
+        <v>3.505764003739419E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.505764003739419E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.044464</v>
+      </c>
+      <c r="I15">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="J15">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.133268</v>
+      </c>
+      <c r="O15">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P15">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q15">
+        <v>0.0006584031502222221</v>
+      </c>
+      <c r="R15">
+        <v>0.005925628351999999</v>
+      </c>
+      <c r="S15">
+        <v>1.608858790239345E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.608858790239345E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.044464</v>
+      </c>
+      <c r="I16">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="J16">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N16">
+        <v>182.872494</v>
+      </c>
+      <c r="O16">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P16">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q16">
+        <v>0.9034713970239998</v>
+      </c>
+      <c r="R16">
+        <v>8.131242573215999</v>
+      </c>
+      <c r="S16">
+        <v>0.002207701919927454</v>
+      </c>
+      <c r="T16">
+        <v>0.002207701919927454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.044464</v>
+      </c>
+      <c r="I17">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="J17">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N17">
+        <v>246.670944</v>
+      </c>
+      <c r="O17">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P17">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q17">
+        <v>1.218664094890667</v>
+      </c>
+      <c r="R17">
+        <v>10.967976854016</v>
+      </c>
+      <c r="S17">
+        <v>0.002977899544909786</v>
+      </c>
+      <c r="T17">
+        <v>0.002977899544909785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.044464</v>
+      </c>
+      <c r="I18">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="J18">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N18">
+        <v>190.187122</v>
+      </c>
+      <c r="O18">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P18">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q18">
+        <v>0.9396089102897777</v>
+      </c>
+      <c r="R18">
+        <v>8.456480192607998</v>
+      </c>
+      <c r="S18">
+        <v>0.002296006715940982</v>
+      </c>
+      <c r="T18">
+        <v>0.002296006715940982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.044464</v>
+      </c>
+      <c r="I19">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="J19">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.883993</v>
+      </c>
+      <c r="O19">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P19">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q19">
+        <v>0.02412909608355555</v>
+      </c>
+      <c r="R19">
+        <v>0.217161864752</v>
+      </c>
+      <c r="S19">
+        <v>5.896130406037031E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.896130406037031E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.321026</v>
+      </c>
+      <c r="H20">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="J20">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.290396</v>
+      </c>
+      <c r="O20">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P20">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q20">
+        <v>0.03107488876533333</v>
+      </c>
+      <c r="R20">
+        <v>0.279673998888</v>
+      </c>
+      <c r="S20">
+        <v>7.593388325821683E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.593388325821682E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.321026</v>
+      </c>
+      <c r="H21">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="J21">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.133268</v>
+      </c>
+      <c r="O21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q21">
+        <v>0.01426083098933333</v>
+      </c>
+      <c r="R21">
+        <v>0.128347478904</v>
+      </c>
+      <c r="S21">
+        <v>3.484743851174273E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.484743851174273E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.12567491202796</v>
-      </c>
-      <c r="H13">
-        <v>1.12567491202796</v>
-      </c>
-      <c r="I13">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="J13">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.35979924013071</v>
-      </c>
-      <c r="N13">
-        <v>1.35979924013071</v>
-      </c>
-      <c r="O13">
-        <v>0.006878803656433702</v>
-      </c>
-      <c r="P13">
-        <v>0.006878803656433702</v>
-      </c>
-      <c r="Q13">
-        <v>1.530691890009824</v>
-      </c>
-      <c r="R13">
-        <v>1.530691890009824</v>
-      </c>
-      <c r="S13">
-        <v>0.004978759975203613</v>
-      </c>
-      <c r="T13">
-        <v>0.004978759975203613</v>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.321026</v>
+      </c>
+      <c r="H22">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="J22">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N22">
+        <v>182.872494</v>
+      </c>
+      <c r="O22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q22">
+        <v>19.568941752948</v>
+      </c>
+      <c r="R22">
+        <v>176.120475776532</v>
+      </c>
+      <c r="S22">
+        <v>0.04781821585192274</v>
+      </c>
+      <c r="T22">
+        <v>0.04781821585192274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.321026</v>
+      </c>
+      <c r="H23">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="J23">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N23">
+        <v>246.670944</v>
+      </c>
+      <c r="O23">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P23">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q23">
+        <v>26.39592882284801</v>
+      </c>
+      <c r="R23">
+        <v>237.563359405632</v>
+      </c>
+      <c r="S23">
+        <v>0.06450048438990255</v>
+      </c>
+      <c r="T23">
+        <v>0.06450048438990255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.321026</v>
+      </c>
+      <c r="H24">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="J24">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N24">
+        <v>190.187122</v>
+      </c>
+      <c r="O24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q24">
+        <v>20.35167034239067</v>
+      </c>
+      <c r="R24">
+        <v>183.165033081516</v>
+      </c>
+      <c r="S24">
+        <v>0.04973087342513065</v>
+      </c>
+      <c r="T24">
+        <v>0.04973087342513065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.321026</v>
+      </c>
+      <c r="H25">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="J25">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.883993</v>
+      </c>
+      <c r="O25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q25">
+        <v>0.5226295789393334</v>
+      </c>
+      <c r="R25">
+        <v>4.703666210454001</v>
+      </c>
+      <c r="S25">
+        <v>0.001277085615146036</v>
+      </c>
+      <c r="T25">
+        <v>0.001277085615146036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.407969</v>
+      </c>
+      <c r="I26">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="J26">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>0.1099622850804445</v>
+      </c>
+      <c r="R26">
+        <v>0.9896605657240001</v>
+      </c>
+      <c r="S26">
+        <v>0.0002687013099599637</v>
+      </c>
+      <c r="T26">
+        <v>0.0002687013099599637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="H27">
+        <v>3.407969</v>
+      </c>
+      <c r="I27">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="J27">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>0.05046369029911112</v>
+      </c>
+      <c r="R27">
+        <v>0.4541732126920001</v>
+      </c>
+      <c r="S27">
+        <v>0.0001233119126149962</v>
+      </c>
+      <c r="T27">
+        <v>0.0001233119126149962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="H28">
+        <v>3.407969</v>
+      </c>
+      <c r="I28">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="J28">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>69.24708783385401</v>
+      </c>
+      <c r="R28">
+        <v>623.223790504686</v>
+      </c>
+      <c r="S28">
+        <v>0.1692105906880453</v>
+      </c>
+      <c r="T28">
+        <v>0.1692105906880453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="H29">
+        <v>3.407969</v>
+      </c>
+      <c r="I29">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="J29">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>93.40521448363737</v>
+      </c>
+      <c r="R29">
+        <v>840.6469303527361</v>
+      </c>
+      <c r="S29">
+        <v>0.2282428331721541</v>
+      </c>
+      <c r="T29">
+        <v>0.2282428331721541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="H30">
+        <v>3.407969</v>
+      </c>
+      <c r="I30">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="J30">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>72.0168684416909</v>
+      </c>
+      <c r="R30">
+        <v>648.151815975218</v>
+      </c>
+      <c r="S30">
+        <v>0.1759787628580126</v>
+      </c>
+      <c r="T30">
+        <v>0.1759787628580126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="H31">
+        <v>3.407969</v>
+      </c>
+      <c r="I31">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="J31">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>1.849388526690778</v>
+      </c>
+      <c r="R31">
+        <v>16.644496740217</v>
+      </c>
+      <c r="S31">
+        <v>0.004519123255607147</v>
+      </c>
+      <c r="T31">
+        <v>0.004519123255607147</v>
       </c>
     </row>
   </sheetData>
